--- a/Estimate_FinancialFragility_NonlinearModel.xlsx
+++ b/Estimate_FinancialFragility_NonlinearModel.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Dropbox (GALILEO)\JMP_Paper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579DA9B1-0BE0-4D90-91F9-92E1AB552D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +25,69 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>16% CI</t>
+  </si>
+  <si>
+    <t>84% CI</t>
+  </si>
+  <si>
+    <t>Estimated Structural Financial Fragility Index</t>
+  </si>
+  <si>
+    <t>The excel file contains the financial fragility estimate for the U.S. between 1985 to 2014. The estimation is based on a nonlinear structural macroeconomic model with endogenous financial crisis that is taken to the data.</t>
+  </si>
+  <si>
+    <t>Index created on 25.2.2022</t>
+  </si>
+  <si>
+    <t>Newest version of the paper</t>
+  </si>
+  <si>
+    <t>The model and index is developed in the paper "Financial Crisis and Shadow Banks: A Quantitative Analysis" by Matthias Rottner. Please cite the paper if you use the index.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +110,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,12 +400,1760 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>31048</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>31138</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>31229</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>31321</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.9999999999999997E-15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>31413</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.2499999999999998E-13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>31503</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.0799999999999998E-13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>31594</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6.5020000000000004E-12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>31686</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4.5133999999999999E-11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>31778</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.9800999999999999E-11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>31868</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.6076E-11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>31959</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.0695200000000001E-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>32051</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7.4300000000000005E-11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>32143</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.13E-12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>32234</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.1680000000000001E-12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>32325</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.4E-14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>32417</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7.0000000000000001E-15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>32509</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4.0000000000000003E-15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>32599</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.7999999999999999E-14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>32690</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4.0000000000000003E-15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>32782</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>32874</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>32964</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>33055</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33147</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>33239</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>33329</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>33420</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>33512</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>33604</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.0000000000000001E-15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>33695</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.134E-12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>33786</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.2187194999999999E-8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>33878</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2.0000000000000002E-15</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>9.2171639499999997E-7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>33970</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.1600000000000001E-13</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3.6926366899999999E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>34060</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4.2670000000000003E-12</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.08372443748E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>34151</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2.7860800000000002E-10</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5.2330032837200004E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>34243</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2.3488405999999999E-8</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3.2013453405890001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>34335</v>
+      </c>
+      <c r="B47" s="1">
+        <v>8.3428427809999992E-6</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.1269999999999999E-12</v>
+      </c>
+      <c r="D47" s="1">
+        <v>6.7222526018269002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>34425</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2.15938147363E-4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4.9854999999999999E-11</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.18513889519042601</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>34516</v>
+      </c>
+      <c r="B49" s="1">
+        <v>9.6660086769299999E-4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.6500059999999999E-9</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.36319855542296903</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>34608</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.7898561939200001E-4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2.7993000000000002E-11</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.18811199938797599</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>34700</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.5193355995999999E-5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>9.0499999999999998E-13</v>
+      </c>
+      <c r="D51" s="1">
+        <v>8.9864207569654006E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>34790</v>
+      </c>
+      <c r="B52" s="1">
+        <v>5.5062017199999998E-7</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5.9999999999999997E-14</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3.9322466568716997E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>34881</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2.0458854250000001E-6</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.1999999999999999E-13</v>
+      </c>
+      <c r="D53" s="1">
+        <v>7.3002440254599996E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>34973</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4.803593026E-6</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3.0099999999999998E-13</v>
+      </c>
+      <c r="D54" s="1">
+        <v>9.1477507777088005E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>35065</v>
+      </c>
+      <c r="B55" s="1">
+        <v>7.3373276423999999E-5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>6.9700000000000004E-12</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.23034703717499899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>35156</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1.6609269818639999E-3</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.9809805000000001E-8</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.61228908224684997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>35247</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3.0438745939339999E-3</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3.7919255000000002E-8</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.95114099060773205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>35339</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1.5730863423313E-2</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4.59076131E-7</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1.6095231006531501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>35431</v>
+      </c>
+      <c r="B59" s="1">
+        <v>6.2437721645013003E-2</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1.3695221229E-5</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2.58893733157936</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>35521</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.24892123826305701</v>
+      </c>
+      <c r="C60" s="1">
+        <v>6.8479346142099999E-4</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3.5013572166715798</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>35612</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.72263485409635198</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.1407748744737E-2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>4.7900201873836101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>35704</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.37327166477197898</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1.2919543361980001E-3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>4.4914783207865598</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>35796</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.90006934114634896</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1.3847685915273E-2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>5.49391554144922</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>35886</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1.1457974252755001</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.9787515327380999E-2</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5.9292411804748602</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>35977</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1.5208613602555501</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4.3118571234037999E-2</v>
+      </c>
+      <c r="D65" s="1">
+        <v>6.4909670979690297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>36069</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.25959527035303298</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3.4349498961499999E-4</v>
+      </c>
+      <c r="D66" s="1">
+        <v>6.0537770771248001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>36161</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1.3916767175626E-2</v>
+      </c>
+      <c r="C67" s="1">
+        <v>6.8170700000000006E-8</v>
+      </c>
+      <c r="D67" s="1">
+        <v>4.7033048783399201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>36251</v>
+      </c>
+      <c r="B68" s="1">
+        <v>7.6642123061900001E-4</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1.7515999999999999E-11</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3.34593824422294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>36342</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2.9462603280000002E-6</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1.4E-14</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.54519888027783403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>36434</v>
+      </c>
+      <c r="B70" s="1">
+        <v>4.5797177330000002E-6</v>
+      </c>
+      <c r="C70" s="1">
+        <v>7.0000000000000005E-14</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.28841003460446801</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>36526</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1.794525773349E-3</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2.04621E-10</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1.9353568375024901</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>36617</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1.6986892603503001E-2</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4.99165317E-7</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2.3888070347206001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>36708</v>
+      </c>
+      <c r="B73" s="1">
+        <v>9.1594281993489998E-3</v>
+      </c>
+      <c r="C73" s="1">
+        <v>7.3509046999999998E-8</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2.78649069543359</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>36800</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1.1283056387038999E-2</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5.4714744000000002E-8</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3.3404706417384702</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>36892</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2.33906924658E-4</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3.1745999999999998E-11</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1.8481234419061501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>36982</v>
+      </c>
+      <c r="B76" s="1">
+        <v>6.2817087660400005E-4</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1.0664300000000001E-10</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2.7623130559378901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>37073</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2.6058132882E-5</v>
+      </c>
+      <c r="C77" s="1">
+        <v>4.9300000000000002E-13</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1.4610946530101601</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>37165</v>
+      </c>
+      <c r="B78" s="1">
+        <v>6.6504940730000001E-6</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2.6E-14</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.96269092272456902</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>37257</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2.2980240339000001E-5</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1.2900000000000001E-13</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1.1509231150334001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>37347</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2.5650258217000001E-5</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1.31E-13</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1.2868892442017701</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>37438</v>
+      </c>
+      <c r="B81" s="1">
+        <v>3.8340183197999999E-5</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1.95E-13</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1.50550740314527</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>37530</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1.91501469E-7</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.49481120921174199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>37622</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1.4086564999999999E-8</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.340605606944341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>37712</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1.7647655661900001E-4</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1.9679000000000001E-11</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2.0378968215414002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>37803</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2.6775605157129999E-3</v>
+      </c>
+      <c r="C85" s="1">
+        <v>7.6266739999999997E-9</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2.1977031936256402</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>37895</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1.3787198258657001E-2</v>
+      </c>
+      <c r="C86" s="1">
+        <v>7.0969796999999998E-8</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2.7473024690985399</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>37987</v>
+      </c>
+      <c r="B87" s="1">
+        <v>6.8209747585925004E-2</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1.5634506417999999E-5</v>
+      </c>
+      <c r="D87" s="1">
+        <v>3.73656879691741</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>38078</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.48692333980409702</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1.6796656267569999E-3</v>
+      </c>
+      <c r="D88" s="1">
+        <v>4.8740714967188996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>38169</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1.3391010476518399</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2.8712728976680001E-2</v>
+      </c>
+      <c r="D89" s="1">
+        <v>5.8464055599384901</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>38261</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2.4958785095984402</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.14886155082338301</v>
+      </c>
+      <c r="D90" s="1">
+        <v>6.7180983755321</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>38353</v>
+      </c>
+      <c r="B91" s="1">
+        <v>3.7364571369531099</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.59648333763472805</v>
+      </c>
+      <c r="D91" s="1">
+        <v>7.5081782992462003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>38443</v>
+      </c>
+      <c r="B92" s="1">
+        <v>3.3236136704699901</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.309300313025903</v>
+      </c>
+      <c r="D92" s="1">
+        <v>7.3188556698390697</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>38534</v>
+      </c>
+      <c r="B93" s="1">
+        <v>4.6323132897246904</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1.0394285460232999</v>
+      </c>
+      <c r="D93" s="1">
+        <v>8.15610662507423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>38626</v>
+      </c>
+      <c r="B94" s="1">
+        <v>4.3083256429665697</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.67926747446003899</v>
+      </c>
+      <c r="D94" s="1">
+        <v>8.1354036483115504</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>38718</v>
+      </c>
+      <c r="B95" s="1">
+        <v>5.1043120658229801</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1.3052459747299301</v>
+      </c>
+      <c r="D95" s="1">
+        <v>8.7961153772307306</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>38808</v>
+      </c>
+      <c r="B96" s="1">
+        <v>5.3874095793152197</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1.6052519685200499</v>
+      </c>
+      <c r="D96" s="1">
+        <v>9.1111050821265298</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>38899</v>
+      </c>
+      <c r="B97" s="1">
+        <v>5.4492472633402702</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1.7867487475816399</v>
+      </c>
+      <c r="D97" s="1">
+        <v>8.9941657024499602</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>38991</v>
+      </c>
+      <c r="B98" s="1">
+        <v>6.3085939424540003</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2.89410569059367</v>
+      </c>
+      <c r="D98" s="1">
+        <v>9.6945631632159905</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>39083</v>
+      </c>
+      <c r="B99" s="1">
+        <v>6.7274469084801796</v>
+      </c>
+      <c r="C99" s="1">
+        <v>3.71367358170435</v>
+      </c>
+      <c r="D99" s="1">
+        <v>10.012233886865101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>39173</v>
+      </c>
+      <c r="B100" s="1">
+        <v>7.6161260060574696</v>
+      </c>
+      <c r="C100" s="1">
+        <v>5.1159615291015301</v>
+      </c>
+      <c r="D100" s="1">
+        <v>10.6850894748024</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>39264</v>
+      </c>
+      <c r="B101" s="1">
+        <v>7.8129467834772504</v>
+      </c>
+      <c r="C101" s="1">
+        <v>5.3412172751322204</v>
+      </c>
+      <c r="D101" s="1">
+        <v>10.8100567404088</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>39356</v>
+      </c>
+      <c r="B102" s="1">
+        <v>7.9210677121735102</v>
+      </c>
+      <c r="C102" s="1">
+        <v>5.3827748598099499</v>
+      </c>
+      <c r="D102" s="1">
+        <v>10.9245322279258</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>39448</v>
+      </c>
+      <c r="B103" s="1">
+        <v>7.3506308295491696</v>
+      </c>
+      <c r="C103" s="1">
+        <v>4.7663559013471302</v>
+      </c>
+      <c r="D103" s="1">
+        <v>10.3172487723486</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>39539</v>
+      </c>
+      <c r="B104" s="1">
+        <v>6.1474995572503204</v>
+      </c>
+      <c r="C104" s="1">
+        <v>3.2533674848034599</v>
+      </c>
+      <c r="D104" s="1">
+        <v>8.9577008706334897</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>39630</v>
+      </c>
+      <c r="B105" s="1">
+        <v>4.5697744634250297</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1.5320179894238599</v>
+      </c>
+      <c r="D105" s="1">
+        <v>7.3724570303584098</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>39722</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>39814</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>39904</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>39995</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>40087</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>40179</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>40269</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>40360</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>40452</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>40544</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>40634</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>40725</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>40817</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>40909</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>41000</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>41091</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>41183</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>41275</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>41456</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>41640</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>41821</v>
+      </c>
+      <c r="B129" s="1">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{2F2B6232-DE2B-469C-B210-77A612145FE8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332EE300-62C2-4247-ABBD-44A149E2B62F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
